--- a/biology/Zoologie/Caraboctonidae/Caraboctonidae.xlsx
+++ b/biology/Zoologie/Caraboctonidae/Caraboctonidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Caraboctonidae sont une famille de scorpions.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les scorpions de cette famille se rencontrent dans l'Ouest de l'Amérique du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les scorpions de cette famille se rencontrent dans l'Ouest de l'Amérique du Sud.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Leur venin n'est pas dangereux pour l'homme mais leur piqure peut être douloureuse[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leur venin n'est pas dangereux pour l'homme mais leur piqure peut être douloureuse.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Scorpion Files (13/06/2020)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Scorpion Files (13/06/2020) :
 Caraboctonus Pocock, 1893
 Hadruroides Pocock, 1893</t>
         </is>
@@ -605,10 +623,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fet et Soleglad en 2003 élèvent la sous-famille des Caraboctoninae des Iuridae au rang de famille[2], ils répartissent les genres en deux sous-famille les Caraboctoninae avec Caraboctonus et Hadruroides et les Hadrurinae avec Hadrurus puis en 2004 Hoffmannihadrurus.
-Santibáñez-López, Ojanguren-Affilastro et Sharma en 2020 élèvent la sous-famille des Hadrurinae des Caraboctonidae au rang de famille[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fet et Soleglad en 2003 élèvent la sous-famille des Caraboctoninae des Iuridae au rang de famille, ils répartissent les genres en deux sous-famille les Caraboctoninae avec Caraboctonus et Hadruroides et les Hadrurinae avec Hadrurus puis en 2004 Hoffmannihadrurus.
+Santibáñez-López, Ojanguren-Affilastro et Sharma en 2020 élèvent la sous-famille des Hadrurinae des Caraboctonidae au rang de famille.
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Kraepelin, 1905 : Die Geographische Verbreitung der Scorpione. Zoologische Jahrbücher, Abteilung für Systematik, Geographie und Biologie der Tiere, vol. 22, no 3, p. 321–364 (texte intégral).</t>
         </is>
